--- a/responses.xlsx
+++ b/responses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>QUESTIONS</t>
   </si>
@@ -41,9 +41,6 @@
     <t>The free market is more important than sustaining the environment</t>
   </si>
   <si>
-    <t>"Punishing the unlawful is more important than rewarding the just"</t>
-  </si>
-  <si>
     <t>"Leniance on criminals is a valid sacrifice for the growth of the economy"</t>
   </si>
   <si>
@@ -108,6 +105,21 @@
   </si>
   <si>
     <t>Tax rates for corporations should be lowered.</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>HUM</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>"Punishing the unlawful is more important than supporting the citizens"</t>
   </si>
 </sst>
 </file>
@@ -428,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +451,7 @@
     <col min="1" max="1" width="120.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,309 +459,324 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="G7">
         <v>-1</v>
       </c>
-      <c r="D7">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="G12">
         <v>-1</v>
       </c>
-      <c r="D12">
+      <c r="L12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>-2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>-2</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B14">
+        <v>-2</v>
+      </c>
+      <c r="G14">
+        <v>-2</v>
+      </c>
+      <c r="L14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B14">
-        <v>-2</v>
-      </c>
-      <c r="C14">
-        <v>-2</v>
-      </c>
-      <c r="D14">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>-2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>-2</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B19">
+        <v>-2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>-2</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="B23">
         <v>-1</v>
       </c>
-      <c r="C23">
+      <c r="G23">
         <v>-1</v>
       </c>
-      <c r="D23">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>-2</v>
+      </c>
+      <c r="L26">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>-2</v>
-      </c>
-      <c r="D26">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B27">
+        <v>-2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27">
-        <v>-2</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28">
+        <v>-2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28">
-        <v>-2</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B29">
         <v>-2</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="L29">
         <v>2</v>
       </c>
     </row>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="19460" windowHeight="14700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,23 +482,56 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>-2</v>
+      </c>
+      <c r="L2">
+        <v>-4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>-2</v>
+      </c>
+      <c r="L3">
+        <v>-4</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="G4">
+        <v>-2</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -628,13 +661,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -642,35 +675,35 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="G18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -679,15 +712,15 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -698,16 +731,16 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
